--- a/utility/data/造价表2.xlsx
+++ b/utility/data/造价表2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\114_temp\008_代码集\002_extras\smallCharpTool\utility\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC5EB862-0188-4050-9838-A3E526513B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2163316F-F74D-4162-854D-AFB294202411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="173">
   <si>
     <t>Office</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -673,6 +673,50 @@
   </si>
   <si>
     <t>Landlord; High Rise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,700 - 30,900+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Rise_ High Quality</t>
+  </si>
+  <si>
+    <t>High Rise_ Better Quality</t>
+  </si>
+  <si>
+    <t>High Rise_ Ordinary Quality</t>
+  </si>
+  <si>
+    <t>House_ High Quality</t>
+  </si>
+  <si>
+    <t>House_ Medium Quality</t>
+  </si>
+  <si>
+    <t>Landlord_ High Rise</t>
+  </si>
+  <si>
+    <t>End User_ Low Rise</t>
+  </si>
+  <si>
+    <t>Basement_ up to 2 Levels</t>
+  </si>
+  <si>
+    <t>External works_landscaping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Five-Star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three-Star</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,7 +1178,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M25"/>
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2204,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570B6DE9-BFC6-4316-BBA8-8CC4CA230341}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2239,49 +2283,49 @@
         <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>52</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="W1" s="9" t="s">
         <v>144</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>73</v>
@@ -2293,7 +2337,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>93</v>
@@ -3070,5 +3114,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/utility/data/造价表2.xlsx
+++ b/utility/data/造价表2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\114_temp\008_代码集\002_extras\smallCharpTool\utility\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2163316F-F74D-4162-854D-AFB294202411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9DF306-A38E-4CBD-9E34-EB23AC2354D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
+    <workbookView xWindow="1575" yWindow="7200" windowWidth="12375" windowHeight="12330" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="174">
   <si>
     <t>Office</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +140,6 @@
   </si>
   <si>
     <t>High Rise; Ordinary Quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High Rise; Better Quality</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -683,9 +679,6 @@
     <t>High Rise_ High Quality</t>
   </si>
   <si>
-    <t>High Rise_ Better Quality</t>
-  </si>
-  <si>
     <t>High Rise_ Ordinary Quality</t>
   </si>
   <si>
@@ -717,6 +710,18 @@
   </si>
   <si>
     <t>Three-Star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Rise; Medium Quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Rise_ Medium Quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1177,13 +1182,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433D7BCC-476D-446F-AFAB-91D69C667311}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.875" style="2" customWidth="1"/>
@@ -1201,43 +1207,43 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1270,40 +1276,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1315,7 +1321,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -1360,37 +1366,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>1</v>
@@ -1423,7 +1429,7 @@
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -1534,43 +1540,43 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1579,10 +1585,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -1627,40 +1633,40 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1672,40 +1678,40 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1717,40 +1723,40 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1762,7 +1768,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1804,10 +1810,10 @@
     </row>
     <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -1870,43 +1876,43 @@
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="M18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1915,43 +1921,43 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1960,7 +1966,7 @@
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1981,43 +1987,43 @@
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="L21" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2026,43 +2032,43 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2071,7 +2077,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2092,43 +2098,43 @@
     </row>
     <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="C24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2137,10 +2143,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -2248,15 +2254,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570B6DE9-BFC6-4316-BBA8-8CC4CA230341}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2274,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
@@ -2283,67 +2289,67 @@
         <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="T1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="5" t="s">
@@ -2354,61 +2360,61 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="5" t="s">
@@ -2419,13 +2425,13 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>9</v>
@@ -2441,10 +2447,10 @@
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="5" t="s">
@@ -2455,7 +2461,7 @@
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>9</v>
@@ -2463,17 +2469,17 @@
     </row>
     <row r="4" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="5" t="s">
@@ -2484,19 +2490,19 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>9</v>
@@ -2506,21 +2512,21 @@
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>9</v>
@@ -2528,17 +2534,17 @@
     </row>
     <row r="5" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5" t="s">
@@ -2549,19 +2555,19 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>9</v>
@@ -2571,21 +2577,21 @@
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>9</v>
@@ -2593,17 +2599,17 @@
     </row>
     <row r="6" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5" t="s">
@@ -2614,19 +2620,19 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>9</v>
@@ -2636,21 +2642,21 @@
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>9</v>
@@ -2658,17 +2664,17 @@
     </row>
     <row r="7" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="5" t="s">
@@ -2679,19 +2685,19 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>9</v>
@@ -2701,21 +2707,21 @@
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>9</v>
@@ -2723,17 +2729,17 @@
     </row>
     <row r="8" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="5" t="s">
@@ -2744,19 +2750,19 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>9</v>
@@ -2766,21 +2772,21 @@
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V8" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>9</v>
@@ -2788,17 +2794,17 @@
     </row>
     <row r="9" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="5" t="s">
@@ -2809,19 +2815,19 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>9</v>
@@ -2831,21 +2837,21 @@
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>9</v>
@@ -2853,17 +2859,17 @@
     </row>
     <row r="10" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="5" t="s">
@@ -2874,19 +2880,19 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>9</v>
@@ -2896,21 +2902,21 @@
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>9</v>
@@ -2918,17 +2924,17 @@
     </row>
     <row r="11" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5" t="s">
@@ -2939,19 +2945,19 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>9</v>
@@ -2961,21 +2967,21 @@
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>9</v>
@@ -2983,17 +2989,17 @@
     </row>
     <row r="12" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="5" t="s">
@@ -3004,19 +3010,19 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>9</v>
@@ -3026,21 +3032,21 @@
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>9</v>
@@ -3048,11 +3054,11 @@
     </row>
     <row r="13" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -3069,19 +3075,19 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>9</v>
@@ -3091,21 +3097,21 @@
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>9</v>

--- a/utility/data/造价表2.xlsx
+++ b/utility/data/造价表2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\114_temp\008_代码集\002_extras\smallCharpTool\utility\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9DF306-A38E-4CBD-9E34-EB23AC2354D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB20505-AFE0-494A-909D-4B8691737B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="7200" windowWidth="12375" windowHeight="12330" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
+    <workbookView xWindow="18450" yWindow="1440" windowWidth="21705" windowHeight="15555" activeTab="1" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="175">
   <si>
     <t>Office</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,10 +672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21,700 - 30,900+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>High Rise_ High Quality</t>
   </si>
   <si>
@@ -722,6 +718,14 @@
   </si>
   <si>
     <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residential_HiseRise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residential_House</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1182,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433D7BCC-476D-446F-AFAB-91D69C667311}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
@@ -1585,7 +1589,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>114</v>
@@ -2038,7 +2042,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>56</v>
@@ -2252,15 +2256,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570B6DE9-BFC6-4316-BBA8-8CC4CA230341}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="24.125" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="13.625" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
@@ -2286,525 +2297,535 @@
         <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>155</v>
+    <row r="2" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="1"/>
       <c r="S2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="1"/>
       <c r="V2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="1"/>
       <c r="S3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="1"/>
       <c r="V3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="Q4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="1"/>
       <c r="S4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="1"/>
       <c r="V4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="1"/>
       <c r="S5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="1"/>
       <c r="V5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="1"/>
       <c r="S6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="1"/>
       <c r="V6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="1"/>
       <c r="S7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="1"/>
       <c r="V7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="1"/>
       <c r="S8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="1"/>
       <c r="V8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="W8" s="1"/>
-      <c r="X8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="Z8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="5" t="s">
@@ -2815,51 +2836,52 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>128</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="1"/>
       <c r="S9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="1"/>
       <c r="V9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="W9" s="1"/>
-      <c r="X9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -2869,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="5" t="s">
@@ -2880,7 +2902,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>9</v>
@@ -2888,53 +2910,54 @@
       <c r="L10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="P10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="1"/>
       <c r="S10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="W10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="W10" s="1"/>
-      <c r="X10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="X10" s="1"/>
+      <c r="Y10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5" t="s">
@@ -2945,175 +2968,46 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="Q11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="1"/>
       <c r="S11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="5" t="s">
-        <v>68</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="1"/>
       <c r="V11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="W11" s="1"/>
-      <c r="X11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="W11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="1"/>
-      <c r="X12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W13" s="1"/>
-      <c r="X13" s="5" t="s">
+      <c r="X11" s="1"/>
+      <c r="Y11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/utility/data/造价表2.xlsx
+++ b/utility/data/造价表2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\114_temp\008_代码集\002_extras\smallCharpTool\utility\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB20505-AFE0-494A-909D-4B8691737B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D38DC4-E147-4047-B501-208006DCDE9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18450" yWindow="1440" windowWidth="21705" windowHeight="15555" activeTab="1" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="21705" windowHeight="15555" activeTab="1" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2259,7 +2259,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
